--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/存货增加.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/存货增加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,403 +528,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1334132.35464604</v>
+        <v>5520937.60557574</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3848220.78</v>
+        <v>3861073.74791735</v>
       </c>
       <c r="E2" t="n">
-        <v>902689.864570015</v>
+        <v>11652841.2910067</v>
       </c>
       <c r="F2" t="n">
-        <v>-1240000</v>
+        <v>99887489.9717605</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>-63507.2318</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1930977.91234706</v>
+        <v>33079069.3817374</v>
       </c>
       <c r="K2" t="n">
-        <v>-1517859.73813034</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>-391919.643674476</v>
+      </c>
+      <c r="L2" t="n">
+        <v>147042.603852219</v>
+      </c>
       <c r="M2" t="n">
-        <v>-1980675.82</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-17218.793</v>
-      </c>
+        <v>6945181.03324553</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>1526456</v>
+        <v>10193968.7647735</v>
       </c>
       <c r="P2" t="n">
-        <v>-1942471.2493407</v>
+        <v>11941958.0866862</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-50600.18</v>
+        <v>4335521.98016248</v>
       </c>
       <c r="S2" t="n">
-        <v>-2541879.19</v>
+        <v>12601815.1204779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1427937.9711627</v>
+        <v>8429873.87669377</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>3319719.73030378</v>
+        <v>35981552.8125143</v>
       </c>
       <c r="E3" t="n">
-        <v>2433749.81524113</v>
+        <v>2298943.21622989</v>
       </c>
       <c r="F3" t="n">
-        <v>19329000</v>
+        <v>106392893.970236</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1385485.96731656</v>
+        <v>8760285.277004439</v>
       </c>
       <c r="J3" t="n">
-        <v>7441837.94663146</v>
+        <v>13325465.8959442</v>
       </c>
       <c r="K3" t="n">
-        <v>-349708</v>
+        <v>5035428.12549727</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>125848.726596016</v>
+        <v>3423087.80468042</v>
       </c>
       <c r="N3" t="n">
-        <v>424044.359969707</v>
+        <v>2999267.97482461</v>
       </c>
       <c r="O3" t="n">
-        <v>1923194.25998719</v>
+        <v>6175683.95284262</v>
       </c>
       <c r="P3" t="n">
-        <v>-36341.7010262061</v>
+        <v>2609079.94970421</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1465234.11955529</v>
+        <v>-681010.32412904</v>
       </c>
       <c r="S3" t="n">
-        <v>2698465.19243423</v>
+        <v>18035235.4084296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3629673.11068008</v>
+        <v>14730909.5494872</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1352181.22263762</v>
+        <v>4545441.35573672</v>
       </c>
       <c r="E4" t="n">
-        <v>-9444649.01001801</v>
+        <v>-8139197.48377072</v>
       </c>
       <c r="F4" t="n">
-        <v>33415001.0050369</v>
+        <v>113327150.851123</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1879859.56775802</v>
+        <v>15813520.1913382</v>
       </c>
       <c r="J4" t="n">
-        <v>15212995.8018958</v>
+        <v>73152724.2234382</v>
       </c>
       <c r="K4" t="n">
-        <v>24347.856065466</v>
+        <v>-2068018.6053725</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>4614341.68139564</v>
+        <v>19615870.8778509</v>
       </c>
       <c r="N4" t="n">
-        <v>1689442.97506828</v>
+        <v>1530812.07951762</v>
       </c>
       <c r="O4" t="n">
-        <v>-3908317.30062631</v>
+        <v>1957567.59331084</v>
       </c>
       <c r="P4" t="n">
-        <v>-4053935.11136354</v>
+        <v>-26362544.4142508</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1770327.19680415</v>
+        <v>-2040553.26295603</v>
       </c>
       <c r="S4" t="n">
-        <v>27908079.2360999</v>
+        <v>20590618.7467937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2446765.10424126</v>
+        <v>789101.118771975</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>9744621.6195591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4922679.00705045</v>
-      </c>
+        <v>4099101.83544647</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>54835514.4051362</v>
+        <v>53091323.6904089</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>1027191.78406646</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>14118999.3236524</v>
+        <v>10115646.4446922</v>
       </c>
       <c r="K5" t="n">
-        <v>-531633.1166782751</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>7393133.50044022</v>
+      </c>
+      <c r="L5" t="n">
+        <v>703047.435663845</v>
+      </c>
       <c r="M5" t="n">
-        <v>2525505.26513485</v>
-      </c>
-      <c r="N5" t="n">
-        <v>259669.671367684</v>
-      </c>
+        <v>-1482809.87201344</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>2491280.50273482</v>
+        <v>3156725.56283968</v>
       </c>
       <c r="P5" t="n">
-        <v>7807989.08410699</v>
+        <v>2832141.32819654</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>541400.819932353</v>
+        <v>781168.5101971</v>
       </c>
       <c r="S5" t="n">
-        <v>9481045.33996816</v>
+        <v>15002842.0984874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5520937.60557574</v>
+        <v>-2103816.76978438</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>3861073.74791735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11652841.2910067</v>
-      </c>
+        <v>54901501.621725</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>99887489.9717605</v>
+        <v>91509937.67722151</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>33079069.3817374</v>
+        <v>37249209.8747197</v>
       </c>
       <c r="K6" t="n">
-        <v>-391919.643674476</v>
+        <v>-25605149.2034971</v>
       </c>
       <c r="L6" t="n">
-        <v>147042.603852219</v>
+        <v>1785150.09795483</v>
       </c>
       <c r="M6" t="n">
-        <v>6945181.03324553</v>
+        <v>-3571111.18213603</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>10193968.7647735</v>
+        <v>462218.578754962</v>
       </c>
       <c r="P6" t="n">
-        <v>11941958.0866862</v>
+        <v>12957019.0619067</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>4335521.98016248</v>
+        <v>2140696.25007459</v>
       </c>
       <c r="S6" t="n">
-        <v>12601815.1204779</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8429873.87669377</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>35981552.8125143</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2298943.21622989</v>
-      </c>
-      <c r="F7" t="n">
-        <v>106392893.970236</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>8760285.277004439</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13325465.8959442</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5035428.12549727</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>3423087.80468042</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2999267.97482461</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6175683.95284262</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2609079.94970421</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>-681010.32412904</v>
-      </c>
-      <c r="S7" t="n">
-        <v>18035235.4084296</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14730909.5494872</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>4545441.35573672</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-8139197.48377072</v>
-      </c>
-      <c r="F8" t="n">
-        <v>113327150.851123</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>15813520.1913382</v>
-      </c>
-      <c r="J8" t="n">
-        <v>73152724.2234382</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-2068018.6053725</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>19615870.8778509</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1530812.07951762</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1957567.59331084</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-26362544.4142508</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>-2040553.26295603</v>
-      </c>
-      <c r="S8" t="n">
-        <v>20590618.7467937</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>789101.118771975</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>4099101.83544647</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>53091323.6904089</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>10115646.4446922</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7393133.50044022</v>
-      </c>
-      <c r="L9" t="n">
-        <v>703047.435663845</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-1482809.87201344</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>3156725.56283968</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2832141.32819654</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>781168.5101971</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15002842.0984874</v>
+        <v>8525640.232746361</v>
       </c>
     </row>
   </sheetData>
